--- a/rubinius_rubinius_sequencing/diversity_measures.xlsx
+++ b/rubinius_rubinius_sequencing/diversity_measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24540" windowHeight="18340" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="diversity_measures.csv" sheetId="1" r:id="rId1"/>
@@ -202,6 +202,68 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>diversity_measures.csv!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>X_2011_06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X_2011_07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X_2011_08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X_2011_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X_2011_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X_2011_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X_2011_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X_2012_01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X_2012_02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>X_2012_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>X_2012_04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>X_2012_05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>X_2012_06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X_2012_07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X_2012_08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>X_2012_09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>X_2012_10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>X_2012_11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>diversity_measures.csv!$B$2:$B$19</c:f>
@@ -277,11 +339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="580854408"/>
-        <c:axId val="595707976"/>
+        <c:axId val="598107112"/>
+        <c:axId val="597804280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="580854408"/>
+        <c:axId val="598107112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,7 +352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595707976"/>
+        <c:crossAx val="597804280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -298,7 +360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595707976"/>
+        <c:axId val="597804280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,7 +371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="580854408"/>
+        <c:crossAx val="598107112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -690,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -970,6 +1032,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>diversity_measures.csv!D2:D19</xm:f>
+              <xm:sqref>D20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -990,22 +1068,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>diversity_measures.csv!D2:D19</xm:f>
-              <xm:sqref>D20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/rubinius_rubinius_sequencing/diversity_measures.xlsx
+++ b/rubinius_rubinius_sequencing/diversity_measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="diversity_measures.csv" sheetId="1" r:id="rId1"/>
@@ -30,58 +30,58 @@
     <t>Turbulence</t>
   </si>
   <si>
-    <t>X_2011_06</t>
-  </si>
-  <si>
-    <t>X_2011_07</t>
-  </si>
-  <si>
-    <t>X_2011_08</t>
-  </si>
-  <si>
-    <t>X_2011_09</t>
-  </si>
-  <si>
-    <t>X_2011_10</t>
-  </si>
-  <si>
-    <t>X_2011_11</t>
-  </si>
-  <si>
-    <t>X_2011_12</t>
-  </si>
-  <si>
-    <t>X_2012_01</t>
-  </si>
-  <si>
-    <t>X_2012_02</t>
-  </si>
-  <si>
-    <t>X_2012_03</t>
-  </si>
-  <si>
-    <t>X_2012_04</t>
-  </si>
-  <si>
-    <t>X_2012_05</t>
-  </si>
-  <si>
-    <t>X_2012_06</t>
-  </si>
-  <si>
-    <t>X_2012_07</t>
-  </si>
-  <si>
-    <t>X_2012_08</t>
-  </si>
-  <si>
-    <t>X_2012_09</t>
-  </si>
-  <si>
-    <t>X_2012_10</t>
-  </si>
-  <si>
-    <t>X_2012_11</t>
+    <t>2011-06</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
   </si>
 </sst>
 </file>
@@ -130,8 +130,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,11 +144,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,26 +174,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Entropy</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -208,58 +197,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>X_2011_06</c:v>
+                  <c:v>2011-06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>X_2011_07</c:v>
+                  <c:v>2011-07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>X_2011_08</c:v>
+                  <c:v>2011-08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X_2011_09</c:v>
+                  <c:v>2011-09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>X_2011_10</c:v>
+                  <c:v>2011-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>X_2011_11</c:v>
+                  <c:v>2011-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>X_2011_12</c:v>
+                  <c:v>2011-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>X_2012_01</c:v>
+                  <c:v>2012-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>X_2012_02</c:v>
+                  <c:v>2012-02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>X_2012_03</c:v>
+                  <c:v>2012-03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>X_2012_04</c:v>
+                  <c:v>2012-04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>X_2012_05</c:v>
+                  <c:v>2012-05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>X_2012_06</c:v>
+                  <c:v>2012-06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>X_2012_07</c:v>
+                  <c:v>2012-07</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>X_2012_08</c:v>
+                  <c:v>2012-08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>X_2012_09</c:v>
+                  <c:v>2012-09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>X_2012_10</c:v>
+                  <c:v>2012-10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>X_2012_11</c:v>
+                  <c:v>2012-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,20 +328,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598107112"/>
-        <c:axId val="597804280"/>
+        <c:axId val="658399736"/>
+        <c:axId val="658402680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598107112"/>
+        <c:axId val="658399736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597804280"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658402680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -360,7 +359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597804280"/>
+        <c:axId val="658402680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,19 +367,14 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598107112"/>
+        <c:crossAx val="658399736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -403,10 +397,10 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -752,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1032,22 +1026,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>diversity_measures.csv!D2:D19</xm:f>
-              <xm:sqref>D20</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -1068,6 +1046,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>diversity_measures.csv!D2:D19</xm:f>
+              <xm:sqref>D20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
